--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna2-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna2-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Efna2</t>
+  </si>
+  <si>
+    <t>Epha7</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Efna2</t>
-  </si>
-  <si>
-    <t>Epha7</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.137477</v>
+        <v>1.7317105</v>
       </c>
       <c r="H2">
-        <v>6.274953999999999</v>
+        <v>3.463421</v>
       </c>
       <c r="I2">
-        <v>0.2757933218263555</v>
+        <v>0.2580726189025833</v>
       </c>
       <c r="J2">
-        <v>0.2143624876083055</v>
+        <v>0.2162491041706965</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.3423605</v>
+        <v>0.2371515</v>
       </c>
       <c r="N2">
-        <v>0.684721</v>
+        <v>0.474303</v>
       </c>
       <c r="O2">
-        <v>0.2024379518768077</v>
+        <v>0.1229805122625808</v>
       </c>
       <c r="P2">
-        <v>0.1895111415682583</v>
+        <v>0.1147457658281868</v>
       </c>
       <c r="Q2">
-        <v>1.0741481944585</v>
+        <v>0.41067774264075</v>
       </c>
       <c r="R2">
-        <v>4.296592777833999</v>
+        <v>1.642710970563</v>
       </c>
       <c r="S2">
-        <v>0.05583103521182869</v>
+        <v>0.03173790287358548</v>
       </c>
       <c r="T2">
-        <v>0.0406240797360616</v>
+        <v>0.0248136690677259</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.137477</v>
+        <v>1.7317105</v>
       </c>
       <c r="H3">
-        <v>6.274953999999999</v>
+        <v>3.463421</v>
       </c>
       <c r="I3">
-        <v>0.2757933218263555</v>
+        <v>0.2580726189025833</v>
       </c>
       <c r="J3">
-        <v>0.2143624876083055</v>
+        <v>0.2162491041706965</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.309653</v>
       </c>
       <c r="O3">
-        <v>0.0610326630481701</v>
+        <v>0.05352595923371758</v>
       </c>
       <c r="P3">
-        <v>0.08570307252156119</v>
+        <v>0.07491281022046142</v>
       </c>
       <c r="Q3">
-        <v>0.3238430551603333</v>
+        <v>0.1787431171521666</v>
       </c>
       <c r="R3">
-        <v>1.943058330962</v>
+        <v>1.072458702913</v>
       </c>
       <c r="S3">
-        <v>0.01683240088196349</v>
+        <v>0.01381358447871841</v>
       </c>
       <c r="T3">
-        <v>0.01837152382139686</v>
+        <v>0.01619982810108418</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.137477</v>
+        <v>1.7317105</v>
       </c>
       <c r="H4">
-        <v>6.274953999999999</v>
+        <v>3.463421</v>
       </c>
       <c r="I4">
-        <v>0.2757933218263555</v>
+        <v>0.2580726189025833</v>
       </c>
       <c r="J4">
-        <v>0.2143624876083055</v>
+        <v>0.2162491041706965</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.01332233333333333</v>
+        <v>0.04845666666666667</v>
       </c>
       <c r="N4">
-        <v>0.039967</v>
+        <v>0.14537</v>
       </c>
       <c r="O4">
-        <v>0.007877503024502313</v>
+        <v>0.02512834913211087</v>
       </c>
       <c r="P4">
-        <v>0.01106171972972726</v>
+        <v>0.03516864109744933</v>
       </c>
       <c r="Q4">
-        <v>0.04179851441966666</v>
+        <v>0.08391291846166668</v>
       </c>
       <c r="R4">
-        <v>0.250791086518</v>
+        <v>0.50347751077</v>
       </c>
       <c r="S4">
-        <v>0.002172562726824655</v>
+        <v>0.006484938869222307</v>
       </c>
       <c r="T4">
-        <v>0.002371217758490209</v>
+        <v>0.00760518713222416</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.137477</v>
+        <v>1.7317105</v>
       </c>
       <c r="H5">
-        <v>6.274953999999999</v>
+        <v>3.463421</v>
       </c>
       <c r="I5">
-        <v>0.2757933218263555</v>
+        <v>0.2580726189025833</v>
       </c>
       <c r="J5">
-        <v>0.2143624876083055</v>
+        <v>0.2162491041706965</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.1181105</v>
+        <v>1.414436</v>
       </c>
       <c r="N5">
-        <v>2.236221</v>
+        <v>2.828872</v>
       </c>
       <c r="O5">
-        <v>0.6611393533773707</v>
+        <v>0.7334891992782493</v>
       </c>
       <c r="P5">
-        <v>0.6189218594272882</v>
+        <v>0.6843749334706176</v>
       </c>
       <c r="Q5">
-        <v>3.5080459772085</v>
+        <v>2.449393672778</v>
       </c>
       <c r="R5">
-        <v>14.032183908834</v>
+        <v>9.797574691112001</v>
       </c>
       <c r="S5">
-        <v>0.1823378184580738</v>
+        <v>0.1892934785944966</v>
       </c>
       <c r="T5">
-        <v>0.1326736294219915</v>
+        <v>0.1479954662799011</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.137477</v>
+        <v>1.7317105</v>
       </c>
       <c r="H6">
-        <v>6.274953999999999</v>
+        <v>3.463421</v>
       </c>
       <c r="I6">
-        <v>0.2757933218263555</v>
+        <v>0.2580726189025833</v>
       </c>
       <c r="J6">
-        <v>0.2143624876083055</v>
+        <v>0.2162491041706965</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1141763333333333</v>
+        <v>0.1251046666666667</v>
       </c>
       <c r="N6">
-        <v>0.342529</v>
+        <v>0.375314</v>
       </c>
       <c r="O6">
-        <v>0.06751252867314916</v>
+        <v>0.06487598009334153</v>
       </c>
       <c r="P6">
-        <v>0.0948022067531651</v>
+        <v>0.09079784938328471</v>
       </c>
       <c r="Q6">
-        <v>0.3582256197776666</v>
+        <v>0.2166450648656667</v>
       </c>
       <c r="R6">
-        <v>2.149353718666</v>
+        <v>1.299870389194</v>
       </c>
       <c r="S6">
-        <v>0.01861950454766488</v>
+        <v>0.01674271408656051</v>
       </c>
       <c r="T6">
-        <v>0.02032203687036537</v>
+        <v>0.01963495358976115</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -859,10 +859,10 @@
         <v>6.92846</v>
       </c>
       <c r="I7">
-        <v>0.2030105717153232</v>
+        <v>0.3441772007430018</v>
       </c>
       <c r="J7">
-        <v>0.2366873001610275</v>
+        <v>0.4325992330364988</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.3423605</v>
+        <v>0.2371515</v>
       </c>
       <c r="N7">
-        <v>0.684721</v>
+        <v>0.474303</v>
       </c>
       <c r="O7">
-        <v>0.2024379518768077</v>
+        <v>0.1229805122625808</v>
       </c>
       <c r="P7">
-        <v>0.1895111415682583</v>
+        <v>0.1147457658281868</v>
       </c>
       <c r="Q7">
-        <v>0.7906770099433335</v>
+        <v>0.5476982272300001</v>
       </c>
       <c r="R7">
-        <v>4.74406205966</v>
+        <v>3.28618936338</v>
       </c>
       <c r="S7">
-        <v>0.04109704434738982</v>
+        <v>0.04232708845647547</v>
       </c>
       <c r="T7">
-        <v>0.04485488044822534</v>
+        <v>0.04963893029145929</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -921,10 +921,10 @@
         <v>6.92846</v>
       </c>
       <c r="I8">
-        <v>0.2030105717153232</v>
+        <v>0.3441772007430018</v>
       </c>
       <c r="J8">
-        <v>0.2366873001610275</v>
+        <v>0.4325992330364988</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -939,10 +939,10 @@
         <v>0.309653</v>
       </c>
       <c r="O8">
-        <v>0.0610326630481701</v>
+        <v>0.05352595923371758</v>
       </c>
       <c r="P8">
-        <v>0.08570307252156119</v>
+        <v>0.07491281022046142</v>
       </c>
       <c r="Q8">
         <v>0.2383798249311111</v>
@@ -951,10 +951,10 @@
         <v>2.14541842438</v>
       </c>
       <c r="S8">
-        <v>0.0123902758187177</v>
+        <v>0.01842241481614495</v>
       </c>
       <c r="T8">
-        <v>0.02028482885063307</v>
+        <v>0.0324072242459804</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>6.92846</v>
       </c>
       <c r="I9">
-        <v>0.2030105717153232</v>
+        <v>0.3441772007430018</v>
       </c>
       <c r="J9">
-        <v>0.2366873001610275</v>
+        <v>0.4325992330364988</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01332233333333333</v>
+        <v>0.04845666666666667</v>
       </c>
       <c r="N9">
-        <v>0.039967</v>
+        <v>0.14537</v>
       </c>
       <c r="O9">
-        <v>0.007877503024502313</v>
+        <v>0.02512834913211087</v>
       </c>
       <c r="P9">
-        <v>0.01106171972972726</v>
+        <v>0.03516864109744933</v>
       </c>
       <c r="Q9">
-        <v>0.03076775120222222</v>
+        <v>0.1119100255777778</v>
       </c>
       <c r="R9">
-        <v>0.27690976082</v>
+        <v>1.0071902302</v>
       </c>
       <c r="S9">
-        <v>0.001599216392693402</v>
+        <v>0.008648604863582758</v>
       </c>
       <c r="T9">
-        <v>0.002618168577967117</v>
+        <v>0.01521392716569247</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>6.92846</v>
       </c>
       <c r="I10">
-        <v>0.2030105717153232</v>
+        <v>0.3441772007430018</v>
       </c>
       <c r="J10">
-        <v>0.2366873001610275</v>
+        <v>0.4325992330364988</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.1181105</v>
+        <v>1.414436</v>
       </c>
       <c r="N10">
-        <v>2.236221</v>
+        <v>2.828872</v>
       </c>
       <c r="O10">
-        <v>0.6611393533773707</v>
+        <v>0.7334891992782493</v>
       </c>
       <c r="P10">
-        <v>0.6189218594272882</v>
+        <v>0.6843749334706176</v>
       </c>
       <c r="Q10">
-        <v>2.582261291610001</v>
+        <v>3.266621082853334</v>
       </c>
       <c r="R10">
-        <v>15.49356774966</v>
+        <v>19.59972649712</v>
       </c>
       <c r="S10">
-        <v>0.1342182781126392</v>
+        <v>0.2524502593828137</v>
       </c>
       <c r="T10">
-        <v>0.1464909439184879</v>
+        <v>0.2960600713287941</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,40 +1107,40 @@
         <v>6.92846</v>
       </c>
       <c r="I11">
-        <v>0.2030105717153232</v>
+        <v>0.3441772007430018</v>
       </c>
       <c r="J11">
-        <v>0.2366873001610275</v>
+        <v>0.4325992330364988</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.1141763333333333</v>
+        <v>0.1251046666666667</v>
       </c>
       <c r="N11">
-        <v>0.342529</v>
+        <v>0.375314</v>
       </c>
       <c r="O11">
-        <v>0.06751252867314916</v>
+        <v>0.06487598009334153</v>
       </c>
       <c r="P11">
-        <v>0.0948022067531651</v>
+        <v>0.09079784938328471</v>
       </c>
       <c r="Q11">
-        <v>0.2636887194822223</v>
+        <v>0.2889275596044445</v>
       </c>
       <c r="R11">
-        <v>2.37319847534</v>
+        <v>2.60034803644</v>
       </c>
       <c r="S11">
-        <v>0.01370575704388317</v>
+        <v>0.022328833223985</v>
       </c>
       <c r="T11">
-        <v>0.02243847836571418</v>
+        <v>0.0392790800045725</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,19 +1160,19 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5867000000000001</v>
+        <v>2.382906</v>
       </c>
       <c r="H12">
-        <v>1.7601</v>
+        <v>4.765812</v>
       </c>
       <c r="I12">
-        <v>0.05157263046566488</v>
+        <v>0.3551187060531648</v>
       </c>
       <c r="J12">
-        <v>0.06012783750117986</v>
+        <v>0.2975678023682237</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.3423605</v>
+        <v>0.2371515</v>
       </c>
       <c r="N12">
-        <v>0.684721</v>
+        <v>0.474303</v>
       </c>
       <c r="O12">
-        <v>0.2024379518768077</v>
+        <v>0.1229805122625808</v>
       </c>
       <c r="P12">
-        <v>0.1895111415682583</v>
+        <v>0.1147457658281868</v>
       </c>
       <c r="Q12">
-        <v>0.20086290535</v>
+        <v>0.565109732259</v>
       </c>
       <c r="R12">
-        <v>1.2051774321</v>
+        <v>2.260438929036</v>
       </c>
       <c r="S12">
-        <v>0.01044025768436865</v>
+        <v>0.04367268038444306</v>
       </c>
       <c r="T12">
-        <v>0.01139489512487933</v>
+        <v>0.03414464536855235</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,19 +1222,19 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5867000000000001</v>
+        <v>2.382906</v>
       </c>
       <c r="H13">
-        <v>1.7601</v>
+        <v>4.765812</v>
       </c>
       <c r="I13">
-        <v>0.05157263046566488</v>
+        <v>0.3551187060531648</v>
       </c>
       <c r="J13">
-        <v>0.06012783750117986</v>
+        <v>0.2975678023682237</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1249,22 +1249,22 @@
         <v>0.309653</v>
       </c>
       <c r="O13">
-        <v>0.0610326630481701</v>
+        <v>0.05352595923371758</v>
       </c>
       <c r="P13">
-        <v>0.08570307252156119</v>
+        <v>0.07491281022046142</v>
       </c>
       <c r="Q13">
-        <v>0.06055780503333334</v>
+        <v>0.245957997206</v>
       </c>
       <c r="R13">
-        <v>0.5450202453</v>
+        <v>1.475747983236</v>
       </c>
       <c r="S13">
-        <v>0.003147614977718716</v>
+        <v>0.01900806938333224</v>
       </c>
       <c r="T13">
-        <v>0.005153140417928265</v>
+        <v>0.02229164030653051</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.382906</v>
+      </c>
+      <c r="H14">
+        <v>4.765812</v>
+      </c>
+      <c r="I14">
+        <v>0.3551187060531648</v>
+      </c>
+      <c r="J14">
+        <v>0.2975678023682237</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G14">
-        <v>0.5867000000000001</v>
-      </c>
-      <c r="H14">
-        <v>1.7601</v>
-      </c>
-      <c r="I14">
-        <v>0.05157263046566488</v>
-      </c>
-      <c r="J14">
-        <v>0.06012783750117986</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M14">
-        <v>0.01332233333333333</v>
+        <v>0.04845666666666667</v>
       </c>
       <c r="N14">
-        <v>0.039967</v>
+        <v>0.14537</v>
       </c>
       <c r="O14">
-        <v>0.007877503024502313</v>
+        <v>0.02512834913211087</v>
       </c>
       <c r="P14">
-        <v>0.01106171972972726</v>
+        <v>0.03516864109744933</v>
       </c>
       <c r="Q14">
-        <v>0.007816212966666668</v>
+        <v>0.11546768174</v>
       </c>
       <c r="R14">
-        <v>0.07034591670000001</v>
+        <v>0.6928060904400001</v>
       </c>
       <c r="S14">
-        <v>0.0004062635524748152</v>
+        <v>0.008923546829047379</v>
       </c>
       <c r="T14">
-        <v>0.0006651172863926361</v>
+        <v>0.01046505524364479</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5867000000000001</v>
+        <v>2.382906</v>
       </c>
       <c r="H15">
-        <v>1.7601</v>
+        <v>4.765812</v>
       </c>
       <c r="I15">
-        <v>0.05157263046566488</v>
+        <v>0.3551187060531648</v>
       </c>
       <c r="J15">
-        <v>0.06012783750117986</v>
+        <v>0.2975678023682237</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.1181105</v>
+        <v>1.414436</v>
       </c>
       <c r="N15">
-        <v>2.236221</v>
+        <v>2.828872</v>
       </c>
       <c r="O15">
-        <v>0.6611393533773707</v>
+        <v>0.7334891992782493</v>
       </c>
       <c r="P15">
-        <v>0.6189218594272882</v>
+        <v>0.6843749334706176</v>
       </c>
       <c r="Q15">
-        <v>0.6559954303500001</v>
+        <v>3.370468031016</v>
       </c>
       <c r="R15">
-        <v>3.935972582100001</v>
+        <v>13.481872124064</v>
       </c>
       <c r="S15">
-        <v>0.03409669555803976</v>
+        <v>0.2604757353516639</v>
       </c>
       <c r="T15">
-        <v>0.03721443298957207</v>
+        <v>0.203647944948751</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5867000000000001</v>
+        <v>2.382906</v>
       </c>
       <c r="H16">
-        <v>1.7601</v>
+        <v>4.765812</v>
       </c>
       <c r="I16">
-        <v>0.05157263046566488</v>
+        <v>0.3551187060531648</v>
       </c>
       <c r="J16">
-        <v>0.06012783750117986</v>
+        <v>0.2975678023682237</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1141763333333333</v>
+        <v>0.1251046666666667</v>
       </c>
       <c r="N16">
-        <v>0.342529</v>
+        <v>0.375314</v>
       </c>
       <c r="O16">
-        <v>0.06751252867314916</v>
+        <v>0.06487598009334153</v>
       </c>
       <c r="P16">
-        <v>0.0948022067531651</v>
+        <v>0.09079784938328471</v>
       </c>
       <c r="Q16">
-        <v>0.06698725476666668</v>
+        <v>0.298112660828</v>
       </c>
       <c r="R16">
-        <v>0.6028852929000001</v>
+        <v>1.788675964968</v>
       </c>
       <c r="S16">
-        <v>0.003481798693062926</v>
+        <v>0.02303867410467832</v>
       </c>
       <c r="T16">
-        <v>0.005700251682407568</v>
+        <v>0.027018516500745</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.7184595</v>
+        <v>0.05833266666666666</v>
       </c>
       <c r="H17">
-        <v>3.436919000000001</v>
+        <v>0.174998</v>
       </c>
       <c r="I17">
-        <v>0.1510575707579874</v>
+        <v>0.008693175940342274</v>
       </c>
       <c r="J17">
-        <v>0.1174106625400361</v>
+        <v>0.01092652632517489</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.3423605</v>
+        <v>0.2371515</v>
       </c>
       <c r="N17">
-        <v>0.684721</v>
+        <v>0.474303</v>
       </c>
       <c r="O17">
-        <v>0.2024379518768077</v>
+        <v>0.1229805122625808</v>
       </c>
       <c r="P17">
-        <v>0.1895111415682583</v>
+        <v>0.1147457658281868</v>
       </c>
       <c r="Q17">
-        <v>0.5883326536497501</v>
+        <v>0.013833679399</v>
       </c>
       <c r="R17">
-        <v>2.353330614599</v>
+        <v>0.08300207639399999</v>
       </c>
       <c r="S17">
-        <v>0.03057978523973293</v>
+        <v>0.001069091230332035</v>
       </c>
       <c r="T17">
-        <v>0.02225062869024779</v>
+        <v>0.001253772631024036</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.7184595</v>
+        <v>0.05833266666666666</v>
       </c>
       <c r="H18">
-        <v>3.436919000000001</v>
+        <v>0.174998</v>
       </c>
       <c r="I18">
-        <v>0.1510575707579874</v>
+        <v>0.008693175940342274</v>
       </c>
       <c r="J18">
-        <v>0.1174106625400361</v>
+        <v>0.01092652632517489</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1559,22 +1559,22 @@
         <v>0.309653</v>
       </c>
       <c r="O18">
-        <v>0.0610326630481701</v>
+        <v>0.05352595923371758</v>
       </c>
       <c r="P18">
-        <v>0.08570307252156119</v>
+        <v>0.07491281022046142</v>
       </c>
       <c r="Q18">
-        <v>0.1773753798511667</v>
+        <v>0.006020961743777776</v>
       </c>
       <c r="R18">
-        <v>1.064252279107</v>
+        <v>0.05418865569399999</v>
       </c>
       <c r="S18">
-        <v>0.00921944581694736</v>
+        <v>0.0004653105809942951</v>
       </c>
       <c r="T18">
-        <v>0.01006245452647326</v>
+        <v>0.0008185367929667022</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.7184595</v>
+        <v>0.05833266666666666</v>
       </c>
       <c r="H19">
-        <v>3.436919000000001</v>
+        <v>0.174998</v>
       </c>
       <c r="I19">
-        <v>0.1510575707579874</v>
+        <v>0.008693175940342274</v>
       </c>
       <c r="J19">
-        <v>0.1174106625400361</v>
+        <v>0.01092652632517489</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.01332233333333333</v>
+        <v>0.04845666666666667</v>
       </c>
       <c r="N19">
-        <v>0.039967</v>
+        <v>0.14537</v>
       </c>
       <c r="O19">
-        <v>0.007877503024502313</v>
+        <v>0.02512834913211087</v>
       </c>
       <c r="P19">
-        <v>0.01106171972972726</v>
+        <v>0.03516864109744933</v>
       </c>
       <c r="Q19">
-        <v>0.02289389027883334</v>
+        <v>0.002826606584444444</v>
       </c>
       <c r="R19">
-        <v>0.137363341673</v>
+        <v>0.02543945926</v>
       </c>
       <c r="S19">
-        <v>0.001189956470520018</v>
+        <v>0.0002184451600957869</v>
       </c>
       <c r="T19">
-        <v>0.001298763842299467</v>
+        <v>0.0003842710827719076</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.7184595</v>
+        <v>0.05833266666666666</v>
       </c>
       <c r="H20">
-        <v>3.436919000000001</v>
+        <v>0.174998</v>
       </c>
       <c r="I20">
-        <v>0.1510575707579874</v>
+        <v>0.008693175940342274</v>
       </c>
       <c r="J20">
-        <v>0.1174106625400361</v>
+        <v>0.01092652632517489</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.1181105</v>
+        <v>1.414436</v>
       </c>
       <c r="N20">
-        <v>2.236221</v>
+        <v>2.828872</v>
       </c>
       <c r="O20">
-        <v>0.6611393533773707</v>
+        <v>0.7334891992782493</v>
       </c>
       <c r="P20">
-        <v>0.6189218594272882</v>
+        <v>0.6843749334706176</v>
       </c>
       <c r="Q20">
-        <v>1.92142761077475</v>
+        <v>0.08250782370933334</v>
       </c>
       <c r="R20">
-        <v>7.685710443099001</v>
+        <v>0.495046942256</v>
       </c>
       <c r="S20">
-        <v>0.09987010465369223</v>
+        <v>0.006376350659666596</v>
       </c>
       <c r="T20">
-        <v>0.072668025575869</v>
+        <v>0.007477840726856517</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>1.7184595</v>
+        <v>0.05833266666666666</v>
       </c>
       <c r="H21">
-        <v>3.436919000000001</v>
+        <v>0.174998</v>
       </c>
       <c r="I21">
-        <v>0.1510575707579874</v>
+        <v>0.008693175940342274</v>
       </c>
       <c r="J21">
-        <v>0.1174106625400361</v>
+        <v>0.01092652632517489</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.1141763333333333</v>
+        <v>0.1251046666666667</v>
       </c>
       <c r="N21">
-        <v>0.342529</v>
+        <v>0.375314</v>
       </c>
       <c r="O21">
-        <v>0.06751252867314916</v>
+        <v>0.06487598009334153</v>
       </c>
       <c r="P21">
-        <v>0.0948022067531651</v>
+        <v>0.09079784938328471</v>
       </c>
       <c r="Q21">
-        <v>0.1962074046918334</v>
+        <v>0.007297688819111111</v>
       </c>
       <c r="R21">
-        <v>1.177244428151</v>
+        <v>0.06567919937199999</v>
       </c>
       <c r="S21">
-        <v>0.01019827857709488</v>
+        <v>0.0005639783092535608</v>
       </c>
       <c r="T21">
-        <v>0.0111307899051466</v>
+        <v>0.0009921050915557249</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>2.103366333333333</v>
+        <v>0.2277316666666667</v>
       </c>
       <c r="H22">
-        <v>6.310098999999999</v>
+        <v>0.683195</v>
       </c>
       <c r="I22">
-        <v>0.1848919970051482</v>
+        <v>0.03393829836090777</v>
       </c>
       <c r="J22">
-        <v>0.2155630971469561</v>
+        <v>0.04265733409940604</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,28 +1801,28 @@
         <v>0.5</v>
       </c>
       <c r="M22">
-        <v>0.3423605</v>
+        <v>0.2371515</v>
       </c>
       <c r="N22">
-        <v>0.684721</v>
+        <v>0.474303</v>
       </c>
       <c r="O22">
-        <v>0.2024379518768077</v>
+        <v>0.1229805122625808</v>
       </c>
       <c r="P22">
-        <v>0.1895111415682583</v>
+        <v>0.1147457658281868</v>
       </c>
       <c r="Q22">
-        <v>0.7201095495631666</v>
+        <v>0.05400690634749999</v>
       </c>
       <c r="R22">
-        <v>4.320657297378999</v>
+        <v>0.324041438085</v>
       </c>
       <c r="S22">
-        <v>0.03742915719213506</v>
+        <v>0.004173749317744744</v>
       </c>
       <c r="T22">
-        <v>0.04085160862030902</v>
+        <v>0.004894748469425171</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>2.103366333333333</v>
+        <v>0.2277316666666667</v>
       </c>
       <c r="H23">
-        <v>6.310098999999999</v>
+        <v>0.683195</v>
       </c>
       <c r="I23">
-        <v>0.1848919970051482</v>
+        <v>0.03393829836090777</v>
       </c>
       <c r="J23">
-        <v>0.2155630971469561</v>
+        <v>0.04265733409940604</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1869,22 +1869,22 @@
         <v>0.309653</v>
       </c>
       <c r="O23">
-        <v>0.0610326630481701</v>
+        <v>0.05352595923371758</v>
       </c>
       <c r="P23">
-        <v>0.08570307252156119</v>
+        <v>0.07491281022046142</v>
       </c>
       <c r="Q23">
-        <v>0.2171045650718889</v>
+        <v>0.02350593125944444</v>
       </c>
       <c r="R23">
-        <v>1.953941085647</v>
+        <v>0.211553381335</v>
       </c>
       <c r="S23">
-        <v>0.01128445095351849</v>
+        <v>0.001816579974527694</v>
       </c>
       <c r="T23">
-        <v>0.01847441974775792</v>
+        <v>0.003195580773899623</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>2.103366333333333</v>
+        <v>0.2277316666666667</v>
       </c>
       <c r="H24">
-        <v>6.310098999999999</v>
+        <v>0.683195</v>
       </c>
       <c r="I24">
-        <v>0.1848919970051482</v>
+        <v>0.03393829836090777</v>
       </c>
       <c r="J24">
-        <v>0.2155630971469561</v>
+        <v>0.04265733409940604</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.01332233333333333</v>
+        <v>0.04845666666666667</v>
       </c>
       <c r="N24">
-        <v>0.039967</v>
+        <v>0.14537</v>
       </c>
       <c r="O24">
-        <v>0.007877503024502313</v>
+        <v>0.02512834913211087</v>
       </c>
       <c r="P24">
-        <v>0.01106171972972726</v>
+        <v>0.03516864109744933</v>
       </c>
       <c r="Q24">
-        <v>0.02802174741477778</v>
+        <v>0.01103511746111111</v>
       </c>
       <c r="R24">
-        <v>0.252195726733</v>
+        <v>0.09931605715</v>
       </c>
       <c r="S24">
-        <v>0.001456487265614328</v>
+        <v>0.0008528134101626366</v>
       </c>
       <c r="T24">
-        <v>0.002384498564711599</v>
+        <v>0.001500200473115998</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>2.103366333333333</v>
+        <v>0.2277316666666667</v>
       </c>
       <c r="H25">
-        <v>6.310098999999999</v>
+        <v>0.683195</v>
       </c>
       <c r="I25">
-        <v>0.1848919970051482</v>
+        <v>0.03393829836090777</v>
       </c>
       <c r="J25">
-        <v>0.2155630971469561</v>
+        <v>0.04265733409940604</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.1181105</v>
+        <v>1.414436</v>
       </c>
       <c r="N25">
-        <v>2.236221</v>
+        <v>2.828872</v>
       </c>
       <c r="O25">
-        <v>0.6611393533773707</v>
+        <v>0.7334891992782493</v>
       </c>
       <c r="P25">
-        <v>0.6189218594272882</v>
+        <v>0.6843749334706176</v>
       </c>
       <c r="Q25">
-        <v>2.3517959826465</v>
+        <v>0.3221118676733333</v>
       </c>
       <c r="R25">
-        <v>14.110775895879</v>
+        <v>1.93267120604</v>
       </c>
       <c r="S25">
-        <v>0.1222393753446345</v>
+        <v>0.02489337528960857</v>
       </c>
       <c r="T25">
-        <v>0.1334167129100992</v>
+        <v>0.02919361018631492</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,371 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>2.103366333333333</v>
+        <v>0.2277316666666667</v>
       </c>
       <c r="H26">
-        <v>6.310098999999999</v>
+        <v>0.683195</v>
       </c>
       <c r="I26">
-        <v>0.1848919970051482</v>
+        <v>0.03393829836090777</v>
       </c>
       <c r="J26">
-        <v>0.2155630971469561</v>
+        <v>0.04265733409940604</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.1141763333333333</v>
+        <v>0.1251046666666667</v>
       </c>
       <c r="N26">
-        <v>0.342529</v>
+        <v>0.375314</v>
       </c>
       <c r="O26">
-        <v>0.06751252867314916</v>
+        <v>0.06487598009334153</v>
       </c>
       <c r="P26">
-        <v>0.0948022067531651</v>
+        <v>0.09079784938328471</v>
       </c>
       <c r="Q26">
-        <v>0.2401546555967778</v>
+        <v>0.02849029424777778</v>
       </c>
       <c r="R26">
-        <v>2.161391900371</v>
+        <v>0.25641264823</v>
       </c>
       <c r="S26">
-        <v>0.01248252624924588</v>
+        <v>0.002201780368864138</v>
       </c>
       <c r="T26">
-        <v>0.02043585730407835</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1.520699666666667</v>
-      </c>
-      <c r="H27">
-        <v>4.562099</v>
-      </c>
-      <c r="I27">
-        <v>0.1336739082295206</v>
-      </c>
-      <c r="J27">
-        <v>0.1558486150424948</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0.5</v>
-      </c>
-      <c r="M27">
-        <v>0.3423605</v>
-      </c>
-      <c r="N27">
-        <v>0.684721</v>
-      </c>
-      <c r="O27">
-        <v>0.2024379518768077</v>
-      </c>
-      <c r="P27">
-        <v>0.1895111415682583</v>
-      </c>
-      <c r="Q27">
-        <v>0.5206274982298333</v>
-      </c>
-      <c r="R27">
-        <v>3.123764989379</v>
-      </c>
-      <c r="S27">
-        <v>0.02706067220135249</v>
-      </c>
-      <c r="T27">
-        <v>0.02953504894853523</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1.520699666666667</v>
-      </c>
-      <c r="H28">
-        <v>4.562099</v>
-      </c>
-      <c r="I28">
-        <v>0.1336739082295206</v>
-      </c>
-      <c r="J28">
-        <v>0.1558486150424948</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M28">
-        <v>0.1032176666666667</v>
-      </c>
-      <c r="N28">
-        <v>0.309653</v>
-      </c>
-      <c r="O28">
-        <v>0.0610326630481701</v>
-      </c>
-      <c r="P28">
-        <v>0.08570307252156119</v>
-      </c>
-      <c r="Q28">
-        <v>0.1569630712941111</v>
-      </c>
-      <c r="R28">
-        <v>1.412667641647</v>
-      </c>
-      <c r="S28">
-        <v>0.008158474599304343</v>
-      </c>
-      <c r="T28">
-        <v>0.0133567051573718</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1.520699666666667</v>
-      </c>
-      <c r="H29">
-        <v>4.562099</v>
-      </c>
-      <c r="I29">
-        <v>0.1336739082295206</v>
-      </c>
-      <c r="J29">
-        <v>0.1558486150424948</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M29">
-        <v>0.01332233333333333</v>
-      </c>
-      <c r="N29">
-        <v>0.039967</v>
-      </c>
-      <c r="O29">
-        <v>0.007877503024502313</v>
-      </c>
-      <c r="P29">
-        <v>0.01106171972972726</v>
-      </c>
-      <c r="Q29">
-        <v>0.02025926785922222</v>
-      </c>
-      <c r="R29">
-        <v>0.182333410733</v>
-      </c>
-      <c r="S29">
-        <v>0.001053016616375093</v>
-      </c>
-      <c r="T29">
-        <v>0.001723953699866234</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1.520699666666667</v>
-      </c>
-      <c r="H30">
-        <v>4.562099</v>
-      </c>
-      <c r="I30">
-        <v>0.1336739082295206</v>
-      </c>
-      <c r="J30">
-        <v>0.1558486150424948</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1.1181105</v>
-      </c>
-      <c r="N30">
-        <v>2.236221</v>
-      </c>
-      <c r="O30">
-        <v>0.6611393533773707</v>
-      </c>
-      <c r="P30">
-        <v>0.6189218594272882</v>
-      </c>
-      <c r="Q30">
-        <v>1.7003102646465</v>
-      </c>
-      <c r="R30">
-        <v>10.201861587879</v>
-      </c>
-      <c r="S30">
-        <v>0.08837708125029124</v>
-      </c>
-      <c r="T30">
-        <v>0.09645811461126852</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1.520699666666667</v>
-      </c>
-      <c r="H31">
-        <v>4.562099</v>
-      </c>
-      <c r="I31">
-        <v>0.1336739082295206</v>
-      </c>
-      <c r="J31">
-        <v>0.1558486150424948</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M31">
-        <v>0.1141763333333333</v>
-      </c>
-      <c r="N31">
-        <v>0.342529</v>
-      </c>
-      <c r="O31">
-        <v>0.06751252867314916</v>
-      </c>
-      <c r="P31">
-        <v>0.0948022067531651</v>
-      </c>
-      <c r="Q31">
-        <v>0.1736279120412222</v>
-      </c>
-      <c r="R31">
-        <v>1.562651208371</v>
-      </c>
-      <c r="S31">
-        <v>0.009024663562197419</v>
-      </c>
-      <c r="T31">
-        <v>0.01477479262545303</v>
+        <v>0.003873194196650325</v>
       </c>
     </row>
   </sheetData>
